--- a/Segments/CloseLink_Vouchers/working_games.xlsx
+++ b/Segments/CloseLink_Vouchers/working_games.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilmalichi/Hapoel/Segments/CloseLink_Vouchers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C734E99D-12B9-1D40-A744-BDF433692383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$163</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -316,8 +325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +336,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -369,10 +385,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,13 +399,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +451,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -458,6 +485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -492,9 +520,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,14 +696,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:D163"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,2275 +725,2276 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38">
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C53" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C58" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58">
+      <c r="C58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59">
+      <c r="C59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61">
+      <c r="C61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62">
+      <c r="C62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63">
+      <c r="C63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C64" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66">
+      <c r="C66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67">
+      <c r="C67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C68" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68">
+      <c r="C68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71">
+      <c r="C71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72">
+      <c r="C72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74">
+      <c r="C74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C76" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76">
+      <c r="C76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77">
+      <c r="C77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C78" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78">
+      <c r="C78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="2">
         <v>786</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79">
+      <c r="C79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80">
+      <c r="C80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C81" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81">
+      <c r="C81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C82" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82">
+      <c r="C82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83">
+      <c r="C83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C84" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84">
+      <c r="C84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C85" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86">
+      <c r="C86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C87" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87">
+      <c r="C87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C88" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88">
+      <c r="C88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90">
+      <c r="C90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91">
+      <c r="C91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92">
+      <c r="C92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C94" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94">
+      <c r="C94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C95" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95">
+      <c r="C95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="2">
         <v>354</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96">
+      <c r="C96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C97" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97">
+      <c r="C97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C98" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98">
+      <c r="C98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C99" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99">
+      <c r="C99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C100" t="s">
-        <v>98</v>
-      </c>
-      <c r="D100">
+      <c r="C100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C101" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101">
+      <c r="C101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C102" t="s">
-        <v>98</v>
-      </c>
-      <c r="D102">
+      <c r="C102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C103" t="s">
-        <v>98</v>
-      </c>
-      <c r="D103">
+      <c r="C103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C104" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104">
+      <c r="C104" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C105" t="s">
-        <v>98</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C106" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106">
+      <c r="C106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C107" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107">
+      <c r="C107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C108" t="s">
-        <v>97</v>
-      </c>
-      <c r="D108">
+      <c r="C108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C109" t="s">
-        <v>97</v>
-      </c>
-      <c r="D109">
+      <c r="C109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C110" t="s">
-        <v>98</v>
-      </c>
-      <c r="D110">
+      <c r="C110" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C111" t="s">
-        <v>98</v>
-      </c>
-      <c r="D111">
+      <c r="C111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C112" t="s">
-        <v>98</v>
-      </c>
-      <c r="D112">
+      <c r="C112" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113">
+      <c r="C113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C114" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114">
+      <c r="C114" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C115" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115">
+      <c r="C115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C116" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116">
+      <c r="C116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C117" t="s">
-        <v>97</v>
-      </c>
-      <c r="D117">
+      <c r="C117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C118" t="s">
-        <v>97</v>
-      </c>
-      <c r="D118">
+      <c r="C118" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C119" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119">
+      <c r="C119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C120" t="s">
-        <v>97</v>
-      </c>
-      <c r="D120">
+      <c r="C120" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C121" t="s">
-        <v>97</v>
-      </c>
-      <c r="D121">
+      <c r="C121" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C122" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122">
+      <c r="C122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C123" t="s">
-        <v>97</v>
-      </c>
-      <c r="D123">
+      <c r="C123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D123" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C124" t="s">
-        <v>97</v>
-      </c>
-      <c r="D124">
+      <c r="C124" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125">
+      <c r="C125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C126" t="s">
-        <v>98</v>
-      </c>
-      <c r="D126">
+      <c r="C126" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C127" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127">
+      <c r="C127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C128" t="s">
-        <v>98</v>
-      </c>
-      <c r="D128">
+      <c r="C128" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C129" t="s">
-        <v>97</v>
-      </c>
-      <c r="D129">
+      <c r="C129" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C130" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130">
+      <c r="C130" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="s">
-        <v>97</v>
-      </c>
-      <c r="D131">
+      <c r="C131" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C132" t="s">
-        <v>97</v>
-      </c>
-      <c r="D132">
+      <c r="C132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C133" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133">
+      <c r="C133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C134" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134">
+      <c r="C134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C135" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135">
+      <c r="C135" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" t="s">
-        <v>98</v>
-      </c>
-      <c r="D136">
+      <c r="C136" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C137" t="s">
-        <v>97</v>
-      </c>
-      <c r="D137">
+      <c r="C137" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C138" t="s">
-        <v>98</v>
-      </c>
-      <c r="D138">
+      <c r="C138" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C139" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139">
+      <c r="C139" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C140" t="s">
-        <v>98</v>
-      </c>
-      <c r="D140">
+      <c r="C140" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C141" t="s">
-        <v>98</v>
-      </c>
-      <c r="D141">
+      <c r="C141" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C142" t="s">
-        <v>98</v>
-      </c>
-      <c r="D142">
+      <c r="C142" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D142" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C143" t="s">
-        <v>98</v>
-      </c>
-      <c r="D143">
+      <c r="C143" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D143" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C144" t="s">
-        <v>98</v>
-      </c>
-      <c r="D144">
+      <c r="C144" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D144" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C145" t="s">
-        <v>98</v>
-      </c>
-      <c r="D145">
+      <c r="C145" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C146" t="s">
-        <v>98</v>
-      </c>
-      <c r="D146">
+      <c r="C146" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D146" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C147" t="s">
-        <v>97</v>
-      </c>
-      <c r="D147">
+      <c r="C147" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C148" t="s">
-        <v>97</v>
-      </c>
-      <c r="D148">
+      <c r="C148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C149" t="s">
-        <v>97</v>
-      </c>
-      <c r="D149">
+      <c r="C149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D149" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C150" t="s">
-        <v>97</v>
-      </c>
-      <c r="D150">
+      <c r="C150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D150" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C151" t="s">
-        <v>97</v>
-      </c>
-      <c r="D151">
+      <c r="C151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C152" t="s">
-        <v>97</v>
-      </c>
-      <c r="D152">
+      <c r="C152" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D152" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C153" t="s">
-        <v>97</v>
-      </c>
-      <c r="D153">
+      <c r="C153" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D153" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C154" t="s">
-        <v>97</v>
-      </c>
-      <c r="D154">
+      <c r="C154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D154" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C155" t="s">
-        <v>97</v>
-      </c>
-      <c r="D155">
+      <c r="C155" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C156" t="s">
-        <v>97</v>
-      </c>
-      <c r="D156">
+      <c r="C156" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D156" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C157" t="s">
-        <v>97</v>
-      </c>
-      <c r="D157">
+      <c r="C157" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D157" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C158" t="s">
-        <v>97</v>
-      </c>
-      <c r="D158">
+      <c r="C158" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D158" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C159" t="s">
-        <v>97</v>
-      </c>
-      <c r="D159">
+      <c r="C159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D159" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C160" t="s">
-        <v>98</v>
-      </c>
-      <c r="D160">
+      <c r="C160" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D160" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C161" t="s">
-        <v>97</v>
-      </c>
-      <c r="D161">
+      <c r="C161" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D161" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C162" t="s">
-        <v>97</v>
-      </c>
-      <c r="D162">
+      <c r="C162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D162" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C163" t="s">
-        <v>98</v>
-      </c>
-      <c r="D163">
+      <c r="C163" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D163" s="2">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>